--- a/SIRS MODELS/galicia/04_07_2020.xlsx
+++ b/SIRS MODELS/galicia/04_07_2020.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vlour\Desktop\COVID19\SIRS MODELS\galicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1931FFD1-F4F0-40F6-B575-34B3897F56CA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DE592-3831-4E8D-BE23-8A5E1B58C95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1301,60 +1301,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1431,6 +1377,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8179,7 +8179,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:AD426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O173" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="S17" sqref="S17:S204"/>
     </sheetView>
   </sheetViews>
@@ -8195,37 +8195,37 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="143" t="s">
+      <c r="B2" s="169" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="145"/>
-      <c r="H2" s="146" t="s">
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="170"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="172" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="147"/>
-      <c r="J2" s="147"/>
-      <c r="K2" s="147"/>
-      <c r="L2" s="147"/>
-      <c r="M2" s="147"/>
-      <c r="N2" s="148"/>
-      <c r="P2" s="146" t="s">
+      <c r="I2" s="173"/>
+      <c r="J2" s="173"/>
+      <c r="K2" s="173"/>
+      <c r="L2" s="173"/>
+      <c r="M2" s="173"/>
+      <c r="N2" s="174"/>
+      <c r="P2" s="172" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="147"/>
-      <c r="S2" s="147"/>
-      <c r="T2" s="147"/>
-      <c r="U2" s="148"/>
-      <c r="W2" s="149" t="s">
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
+      <c r="S2" s="173"/>
+      <c r="T2" s="173"/>
+      <c r="U2" s="174"/>
+      <c r="W2" s="175" t="s">
         <v>17</v>
       </c>
-      <c r="X2" s="150"/>
-      <c r="Y2" s="150"/>
-      <c r="Z2" s="151"/>
+      <c r="X2" s="176"/>
+      <c r="Y2" s="176"/>
+      <c r="Z2" s="177"/>
     </row>
     <row r="3" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="82" t="s">
@@ -8267,13 +8267,13 @@
       <c r="N3" s="86" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="152" t="s">
+      <c r="P3" s="178" t="s">
         <v>25</v>
       </c>
-      <c r="Q3" s="153"/>
-      <c r="R3" s="153"/>
-      <c r="S3" s="153"/>
-      <c r="T3" s="154"/>
+      <c r="Q3" s="179"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="179"/>
+      <c r="T3" s="180"/>
       <c r="U3" s="64">
         <f>2699499</f>
         <v>2699499</v>
@@ -8336,13 +8336,13 @@
       <c r="N4" s="87">
         <v>0</v>
       </c>
-      <c r="P4" s="155" t="s">
+      <c r="P4" s="181" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="156"/>
-      <c r="R4" s="156"/>
-      <c r="S4" s="156"/>
-      <c r="T4" s="157"/>
+      <c r="Q4" s="182"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="182"/>
+      <c r="T4" s="183"/>
       <c r="U4" s="65">
         <f>1084.3*1000</f>
         <v>1084300</v>
@@ -8411,13 +8411,13 @@
         <f t="shared" ref="N5:N24" si="6">K5-K4</f>
         <v>0</v>
       </c>
-      <c r="P5" s="152" t="s">
+      <c r="P5" s="178" t="s">
         <v>27</v>
       </c>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="154"/>
+      <c r="Q5" s="179"/>
+      <c r="R5" s="179"/>
+      <c r="S5" s="179"/>
+      <c r="T5" s="180"/>
       <c r="U5" s="96">
         <f>U3/U4</f>
         <v>2.4896237203725908</v>
@@ -8470,13 +8470,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P6" s="152" t="s">
+      <c r="P6" s="178" t="s">
         <v>33</v>
       </c>
-      <c r="Q6" s="153"/>
-      <c r="R6" s="153"/>
-      <c r="S6" s="153"/>
-      <c r="T6" s="154"/>
+      <c r="Q6" s="179"/>
+      <c r="R6" s="179"/>
+      <c r="S6" s="179"/>
+      <c r="T6" s="180"/>
       <c r="U6" s="96">
         <v>7</v>
       </c>
@@ -8528,13 +8528,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P7" s="152" t="s">
+      <c r="P7" s="178" t="s">
         <v>34</v>
       </c>
-      <c r="Q7" s="153"/>
-      <c r="R7" s="153"/>
-      <c r="S7" s="153"/>
-      <c r="T7" s="154"/>
+      <c r="Q7" s="179"/>
+      <c r="R7" s="179"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="180"/>
       <c r="U7" s="97">
         <f>2.68</f>
         <v>2.68</v>
@@ -8588,13 +8588,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P8" s="152" t="s">
+      <c r="P8" s="178" t="s">
         <v>35</v>
       </c>
-      <c r="Q8" s="153"/>
-      <c r="R8" s="153"/>
-      <c r="S8" s="153"/>
-      <c r="T8" s="154"/>
+      <c r="Q8" s="179"/>
+      <c r="R8" s="179"/>
+      <c r="S8" s="179"/>
+      <c r="T8" s="180"/>
       <c r="U8" s="97">
         <f>U5</f>
         <v>2.4896237203725908</v>
@@ -8648,13 +8648,13 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P9" s="158" t="s">
+      <c r="P9" s="184" t="s">
         <v>28</v>
       </c>
-      <c r="Q9" s="159"/>
-      <c r="R9" s="159"/>
-      <c r="S9" s="159"/>
-      <c r="T9" s="160"/>
+      <c r="Q9" s="185"/>
+      <c r="R9" s="185"/>
+      <c r="S9" s="185"/>
+      <c r="T9" s="186"/>
       <c r="U9" s="98">
         <f>U8/(U7^U6)</f>
         <v>2.5072067881136053E-3</v>
@@ -8757,14 +8757,14 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="P11" s="146" t="s">
+      <c r="P11" s="172" t="s">
         <v>39</v>
       </c>
-      <c r="Q11" s="147"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="148"/>
+      <c r="Q11" s="173"/>
+      <c r="R11" s="173"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="173"/>
+      <c r="U11" s="174"/>
     </row>
     <row r="12" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="7">
@@ -11098,15 +11098,15 @@
         <v>5298</v>
       </c>
       <c r="T40" s="131">
-        <f t="shared" ref="T40:T41" si="90">J40</f>
+        <f t="shared" ref="T40" si="90">J40</f>
         <v>5342</v>
       </c>
       <c r="U40" s="102">
-        <f t="shared" ref="U40:U41" si="91">S40-T40</f>
+        <f t="shared" ref="U40" si="91">S40-T40</f>
         <v>-44</v>
       </c>
       <c r="V40" s="100">
-        <f t="shared" ref="V40:V41" si="92">U40/T40</f>
+        <f t="shared" ref="V40" si="92">U40/T40</f>
         <v>-8.2366154998128049E-3</v>
       </c>
       <c r="W40" s="102">
@@ -11119,86 +11119,86 @@
       </c>
     </row>
     <row r="41" spans="2:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="171">
+      <c r="B41" s="153">
         <v>37</v>
       </c>
-      <c r="C41" s="179">
+      <c r="C41" s="161">
         <v>43928</v>
       </c>
-      <c r="D41" s="184">
+      <c r="D41" s="166">
         <f t="shared" si="35"/>
         <v>6331</v>
       </c>
-      <c r="E41" s="172">
+      <c r="E41" s="154">
         <v>688</v>
       </c>
-      <c r="F41" s="173">
+      <c r="F41" s="155">
         <v>208</v>
       </c>
-      <c r="G41" s="182">
+      <c r="G41" s="164">
         <f t="shared" si="70"/>
         <v>2.3452499889794367E-3</v>
       </c>
-      <c r="H41" s="180">
+      <c r="H41" s="162">
         <f t="shared" si="89"/>
         <v>1.029263534384653</v>
       </c>
-      <c r="I41" s="185">
+      <c r="I41" s="167">
         <f t="shared" si="79"/>
         <v>917</v>
       </c>
-      <c r="J41" s="172">
+      <c r="J41" s="154">
         <v>5435</v>
       </c>
-      <c r="K41" s="173">
+      <c r="K41" s="155">
         <f t="shared" si="80"/>
         <v>688</v>
       </c>
-      <c r="L41" s="183">
+      <c r="L41" s="165">
         <f t="shared" si="48"/>
         <v>-111</v>
       </c>
-      <c r="M41" s="172">
+      <c r="M41" s="154">
         <f t="shared" si="19"/>
         <v>93</v>
       </c>
-      <c r="N41" s="173">
+      <c r="N41" s="155">
         <f t="shared" si="49"/>
         <v>78</v>
       </c>
-      <c r="P41" s="174">
+      <c r="P41" s="156">
         <f t="shared" si="52"/>
         <v>1.8422463383291605E-5</v>
       </c>
-      <c r="Q41" s="175">
+      <c r="Q41" s="157">
         <f t="shared" si="53"/>
         <v>0.77046300921027244</v>
       </c>
-      <c r="R41" s="175">
+      <c r="R41" s="157">
         <f t="shared" si="54"/>
         <v>-4744.037466278899</v>
       </c>
-      <c r="S41" s="181">
+      <c r="S41" s="163">
         <f t="shared" si="55"/>
         <v>5447</v>
       </c>
-      <c r="T41" s="186">
+      <c r="T41" s="168">
         <f t="shared" ref="T41" si="95">J41</f>
         <v>5435</v>
       </c>
-      <c r="U41" s="176">
+      <c r="U41" s="158">
         <f t="shared" ref="U41" si="96">S41-T41</f>
         <v>12</v>
       </c>
-      <c r="V41" s="177">
+      <c r="V41" s="159">
         <f t="shared" ref="V41" si="97">U41/T41</f>
         <v>2.2079116835326588E-3</v>
       </c>
-      <c r="W41" s="176">
+      <c r="W41" s="158">
         <f t="shared" ref="W41" si="98">W40+U41</f>
         <v>-1981</v>
       </c>
-      <c r="X41" s="178">
+      <c r="X41" s="160">
         <f t="shared" ref="X41" si="99">W41/T41</f>
         <v>-0.36448942042318305</v>
       </c>
@@ -11210,15 +11210,15 @@
       <c r="C42" s="77">
         <v>43929</v>
       </c>
-      <c r="D42" s="161">
-        <f t="shared" ref="D41:D58" si="100">D41+IF(M42&gt;0,M42,0)</f>
+      <c r="D42" s="143">
+        <f t="shared" ref="D42:D58" si="100">D41+IF(M42&gt;0,M42,0)</f>
         <v>6425</v>
       </c>
-      <c r="E42" s="162">
-        <f t="shared" ref="E41:E58" si="101">E41+IF(N42&gt;0,N42,0)</f>
+      <c r="E42" s="144">
+        <f t="shared" ref="E42:E58" si="101">E41+IF(N42&gt;0,N42,0)</f>
         <v>796</v>
       </c>
-      <c r="F42" s="163">
+      <c r="F42" s="145">
         <f>D42*(F$41/D$41)</f>
         <v>211.08829568788502</v>
       </c>
@@ -11230,39 +11230,39 @@
         <f t="shared" si="89"/>
         <v>1.0148475754225241</v>
       </c>
-      <c r="I42" s="161">
-        <f t="shared" ref="I41:I58" si="102">INT((Z$4*K42+I41)/(1+Y$4*J42))</f>
+      <c r="I42" s="143">
+        <f t="shared" ref="I42:I58" si="102">INT((Z$4*K42+I41)/(1+Y$4*J42))</f>
         <v>740</v>
       </c>
-      <c r="J42" s="164">
-        <f t="shared" ref="J41:J58" si="103">S42</f>
+      <c r="J42" s="146">
+        <f t="shared" ref="J42:J58" si="103">S42</f>
         <v>5529</v>
       </c>
-      <c r="K42" s="163">
-        <f t="shared" ref="K41:K58" si="104">INT((X$4*J42+K41)/(1+W$4+Z$4))</f>
+      <c r="K42" s="145">
+        <f t="shared" ref="K42:K58" si="104">INT((X$4*J42+K41)/(1+W$4+Z$4))</f>
         <v>796</v>
       </c>
-      <c r="L42" s="161">
+      <c r="L42" s="143">
         <f t="shared" si="48"/>
         <v>-177</v>
       </c>
-      <c r="M42" s="164">
+      <c r="M42" s="146">
         <f t="shared" si="19"/>
         <v>94</v>
       </c>
-      <c r="N42" s="163">
+      <c r="N42" s="145">
         <f t="shared" si="49"/>
         <v>108</v>
       </c>
-      <c r="P42" s="165">
+      <c r="P42" s="147">
         <f t="shared" si="52"/>
         <v>1.8422463383291605E-5</v>
       </c>
-      <c r="Q42" s="166">
+      <c r="Q42" s="148">
         <f t="shared" si="53"/>
         <v>0.77098213846706209</v>
       </c>
-      <c r="R42" s="166">
+      <c r="R42" s="148">
         <f t="shared" si="54"/>
         <v>-4826.6274109370679</v>
       </c>
@@ -11270,11 +11270,11 @@
         <f t="shared" si="55"/>
         <v>5529</v>
       </c>
-      <c r="T42" s="167"/>
-      <c r="U42" s="168"/>
-      <c r="V42" s="169"/>
-      <c r="W42" s="168"/>
-      <c r="X42" s="170"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="150"/>
+      <c r="V42" s="151"/>
+      <c r="W42" s="150"/>
+      <c r="X42" s="152"/>
     </row>
     <row r="43" spans="2:30" x14ac:dyDescent="0.25">
       <c r="B43" s="8">
